--- a/sample_excel/Brand-imp-01-group.xlsx
+++ b/sample_excel/Brand-imp-01-group.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -284,6 +287,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
